--- a/Texas_Supplies_Available_Trauma_Area.xlsx
+++ b/Texas_Supplies_Available_Trauma_Area.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marissa\Documents\GitHub\Covid-19-Texas-Modeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19D936E-A6F2-443F-97D2-ECE7C8D32861}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01AFD05-5F46-403F-8D9E-C99417129601}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="84" yWindow="114" windowWidth="22920" windowHeight="12198" xr2:uid="{4B38F19F-477E-479B-BC35-E46050AD1402}"/>
+    <workbookView xWindow="11346" yWindow="1056" windowWidth="12702" windowHeight="12006" xr2:uid="{4B38F19F-477E-479B-BC35-E46050AD1402}"/>
   </bookViews>
   <sheets>
     <sheet name="Final_Data" sheetId="5" r:id="rId1"/>
@@ -1372,8 +1372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92359A8E-EC89-4251-87A8-DE6375231C4B}">
   <dimension ref="A1:H255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="B240" workbookViewId="0">
+      <selection activeCell="E252" sqref="E252:H255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1384,7 +1384,7 @@
     <col min="6" max="8" width="8.83984375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" ht="14.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1424,16 +1424,16 @@
         <v>440127</v>
       </c>
       <c r="E2" s="2">
-        <v>1138</v>
+        <v>1306</v>
       </c>
       <c r="F2" s="2">
-        <v>407</v>
+        <v>467</v>
       </c>
       <c r="G2" s="2">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="H2" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1450,16 +1450,16 @@
         <v>440127</v>
       </c>
       <c r="E3" s="2">
-        <v>1138</v>
+        <v>1306</v>
       </c>
       <c r="F3" s="2">
-        <v>407</v>
+        <v>467</v>
       </c>
       <c r="G3" s="2">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="H3" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1476,16 +1476,16 @@
         <v>440127</v>
       </c>
       <c r="E4" s="2">
-        <v>1138</v>
+        <v>1306</v>
       </c>
       <c r="F4" s="2">
-        <v>407</v>
+        <v>467</v>
       </c>
       <c r="G4" s="2">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="H4" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1502,16 +1502,16 @@
         <v>440127</v>
       </c>
       <c r="E5" s="2">
-        <v>1138</v>
+        <v>1306</v>
       </c>
       <c r="F5" s="2">
-        <v>407</v>
+        <v>467</v>
       </c>
       <c r="G5" s="2">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="H5" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1528,16 +1528,16 @@
         <v>440127</v>
       </c>
       <c r="E6" s="2">
-        <v>1138</v>
+        <v>1306</v>
       </c>
       <c r="F6" s="2">
-        <v>407</v>
+        <v>467</v>
       </c>
       <c r="G6" s="2">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="H6" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1554,16 +1554,16 @@
         <v>440127</v>
       </c>
       <c r="E7" s="2">
-        <v>1138</v>
+        <v>1306</v>
       </c>
       <c r="F7" s="2">
-        <v>407</v>
+        <v>467</v>
       </c>
       <c r="G7" s="2">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="H7" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1580,16 +1580,16 @@
         <v>440127</v>
       </c>
       <c r="E8" s="2">
-        <v>1138</v>
+        <v>1306</v>
       </c>
       <c r="F8" s="2">
-        <v>407</v>
+        <v>467</v>
       </c>
       <c r="G8" s="2">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="H8" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1606,16 +1606,16 @@
         <v>440127</v>
       </c>
       <c r="E9" s="2">
-        <v>1138</v>
+        <v>1306</v>
       </c>
       <c r="F9" s="2">
-        <v>407</v>
+        <v>467</v>
       </c>
       <c r="G9" s="2">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="H9" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1632,16 +1632,16 @@
         <v>440127</v>
       </c>
       <c r="E10" s="2">
-        <v>1138</v>
+        <v>1306</v>
       </c>
       <c r="F10" s="2">
-        <v>407</v>
+        <v>467</v>
       </c>
       <c r="G10" s="2">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="H10" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1658,16 +1658,16 @@
         <v>440127</v>
       </c>
       <c r="E11" s="2">
-        <v>1138</v>
+        <v>1306</v>
       </c>
       <c r="F11" s="2">
-        <v>407</v>
+        <v>467</v>
       </c>
       <c r="G11" s="2">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="H11" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1684,16 +1684,16 @@
         <v>440127</v>
       </c>
       <c r="E12" s="2">
-        <v>1138</v>
+        <v>1306</v>
       </c>
       <c r="F12" s="2">
-        <v>407</v>
+        <v>467</v>
       </c>
       <c r="G12" s="2">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="H12" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1710,16 +1710,16 @@
         <v>440127</v>
       </c>
       <c r="E13" s="2">
-        <v>1138</v>
+        <v>1306</v>
       </c>
       <c r="F13" s="2">
-        <v>407</v>
+        <v>467</v>
       </c>
       <c r="G13" s="2">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="H13" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1736,16 +1736,16 @@
         <v>440127</v>
       </c>
       <c r="E14" s="2">
-        <v>1138</v>
+        <v>1306</v>
       </c>
       <c r="F14" s="2">
-        <v>407</v>
+        <v>467</v>
       </c>
       <c r="G14" s="2">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="H14" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1762,16 +1762,16 @@
         <v>440127</v>
       </c>
       <c r="E15" s="2">
-        <v>1138</v>
+        <v>1306</v>
       </c>
       <c r="F15" s="2">
-        <v>407</v>
+        <v>467</v>
       </c>
       <c r="G15" s="2">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="H15" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1788,16 +1788,16 @@
         <v>440127</v>
       </c>
       <c r="E16" s="2">
-        <v>1138</v>
+        <v>1306</v>
       </c>
       <c r="F16" s="2">
-        <v>407</v>
+        <v>467</v>
       </c>
       <c r="G16" s="2">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="H16" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1814,16 +1814,16 @@
         <v>440127</v>
       </c>
       <c r="E17" s="2">
-        <v>1138</v>
+        <v>1306</v>
       </c>
       <c r="F17" s="2">
-        <v>407</v>
+        <v>467</v>
       </c>
       <c r="G17" s="2">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="H17" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1840,16 +1840,16 @@
         <v>440127</v>
       </c>
       <c r="E18" s="2">
-        <v>1138</v>
+        <v>1306</v>
       </c>
       <c r="F18" s="2">
-        <v>407</v>
+        <v>467</v>
       </c>
       <c r="G18" s="2">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="H18" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1866,16 +1866,16 @@
         <v>440127</v>
       </c>
       <c r="E19" s="2">
-        <v>1138</v>
+        <v>1306</v>
       </c>
       <c r="F19" s="2">
-        <v>407</v>
+        <v>467</v>
       </c>
       <c r="G19" s="2">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="H19" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1892,16 +1892,16 @@
         <v>440127</v>
       </c>
       <c r="E20" s="2">
-        <v>1138</v>
+        <v>1306</v>
       </c>
       <c r="F20" s="2">
-        <v>407</v>
+        <v>467</v>
       </c>
       <c r="G20" s="2">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="H20" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1918,16 +1918,16 @@
         <v>440127</v>
       </c>
       <c r="E21" s="2">
-        <v>1138</v>
+        <v>1306</v>
       </c>
       <c r="F21" s="2">
-        <v>407</v>
+        <v>467</v>
       </c>
       <c r="G21" s="2">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="H21" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1944,16 +1944,16 @@
         <v>440127</v>
       </c>
       <c r="E22" s="2">
-        <v>1138</v>
+        <v>1306</v>
       </c>
       <c r="F22" s="2">
-        <v>407</v>
+        <v>467</v>
       </c>
       <c r="G22" s="2">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="H22" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1970,16 +1970,16 @@
         <v>440127</v>
       </c>
       <c r="E23" s="2">
-        <v>1138</v>
+        <v>1306</v>
       </c>
       <c r="F23" s="2">
-        <v>407</v>
+        <v>467</v>
       </c>
       <c r="G23" s="2">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="H23" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1996,16 +1996,16 @@
         <v>440127</v>
       </c>
       <c r="E24" s="2">
-        <v>1138</v>
+        <v>1306</v>
       </c>
       <c r="F24" s="2">
-        <v>407</v>
+        <v>467</v>
       </c>
       <c r="G24" s="2">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="H24" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2022,16 +2022,16 @@
         <v>440127</v>
       </c>
       <c r="E25" s="2">
-        <v>1138</v>
+        <v>1306</v>
       </c>
       <c r="F25" s="2">
-        <v>407</v>
+        <v>467</v>
       </c>
       <c r="G25" s="2">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="H25" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2048,16 +2048,16 @@
         <v>440127</v>
       </c>
       <c r="E26" s="2">
-        <v>1138</v>
+        <v>1306</v>
       </c>
       <c r="F26" s="2">
-        <v>407</v>
+        <v>467</v>
       </c>
       <c r="G26" s="2">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="H26" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2074,16 +2074,16 @@
         <v>513580</v>
       </c>
       <c r="E27" s="2">
-        <v>1297</v>
+        <v>2720</v>
       </c>
       <c r="F27" s="2">
-        <v>382</v>
+        <v>757</v>
       </c>
       <c r="G27" s="2">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H27" s="2">
-        <v>140</v>
+        <v>206</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2100,16 +2100,16 @@
         <v>513580</v>
       </c>
       <c r="E28" s="2">
-        <v>1297</v>
+        <v>2720</v>
       </c>
       <c r="F28" s="2">
-        <v>382</v>
+        <v>757</v>
       </c>
       <c r="G28" s="2">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H28" s="2">
-        <v>140</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2126,16 +2126,16 @@
         <v>513580</v>
       </c>
       <c r="E29" s="2">
-        <v>1297</v>
+        <v>2720</v>
       </c>
       <c r="F29" s="2">
-        <v>382</v>
+        <v>757</v>
       </c>
       <c r="G29" s="2">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H29" s="2">
-        <v>140</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2152,16 +2152,16 @@
         <v>513580</v>
       </c>
       <c r="E30" s="2">
-        <v>1297</v>
+        <v>2720</v>
       </c>
       <c r="F30" s="2">
-        <v>382</v>
+        <v>757</v>
       </c>
       <c r="G30" s="2">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H30" s="2">
-        <v>140</v>
+        <v>206</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2178,16 +2178,16 @@
         <v>513580</v>
       </c>
       <c r="E31" s="2">
-        <v>1297</v>
+        <v>2720</v>
       </c>
       <c r="F31" s="2">
-        <v>382</v>
+        <v>757</v>
       </c>
       <c r="G31" s="2">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H31" s="2">
-        <v>140</v>
+        <v>206</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2204,16 +2204,16 @@
         <v>513580</v>
       </c>
       <c r="E32" s="2">
-        <v>1297</v>
+        <v>2720</v>
       </c>
       <c r="F32" s="2">
-        <v>382</v>
+        <v>757</v>
       </c>
       <c r="G32" s="2">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H32" s="2">
-        <v>140</v>
+        <v>206</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2230,16 +2230,16 @@
         <v>513580</v>
       </c>
       <c r="E33" s="2">
-        <v>1297</v>
+        <v>2720</v>
       </c>
       <c r="F33" s="2">
-        <v>382</v>
+        <v>757</v>
       </c>
       <c r="G33" s="2">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H33" s="2">
-        <v>140</v>
+        <v>206</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2256,16 +2256,16 @@
         <v>513580</v>
       </c>
       <c r="E34" s="2">
-        <v>1297</v>
+        <v>2720</v>
       </c>
       <c r="F34" s="2">
-        <v>382</v>
+        <v>757</v>
       </c>
       <c r="G34" s="2">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H34" s="2">
-        <v>140</v>
+        <v>206</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2282,16 +2282,16 @@
         <v>513580</v>
       </c>
       <c r="E35" s="2">
-        <v>1297</v>
+        <v>2720</v>
       </c>
       <c r="F35" s="2">
-        <v>382</v>
+        <v>757</v>
       </c>
       <c r="G35" s="2">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H35" s="2">
-        <v>140</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2308,16 +2308,16 @@
         <v>513580</v>
       </c>
       <c r="E36" s="2">
-        <v>1297</v>
+        <v>2720</v>
       </c>
       <c r="F36" s="2">
-        <v>382</v>
+        <v>757</v>
       </c>
       <c r="G36" s="2">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H36" s="2">
-        <v>140</v>
+        <v>206</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2334,16 +2334,16 @@
         <v>513580</v>
       </c>
       <c r="E37" s="2">
-        <v>1297</v>
+        <v>2720</v>
       </c>
       <c r="F37" s="2">
-        <v>382</v>
+        <v>757</v>
       </c>
       <c r="G37" s="2">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H37" s="2">
-        <v>140</v>
+        <v>206</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2360,16 +2360,16 @@
         <v>513580</v>
       </c>
       <c r="E38" s="2">
-        <v>1297</v>
+        <v>2720</v>
       </c>
       <c r="F38" s="2">
-        <v>382</v>
+        <v>757</v>
       </c>
       <c r="G38" s="2">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H38" s="2">
-        <v>140</v>
+        <v>206</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2386,16 +2386,16 @@
         <v>513580</v>
       </c>
       <c r="E39" s="2">
-        <v>1297</v>
+        <v>2720</v>
       </c>
       <c r="F39" s="2">
-        <v>382</v>
+        <v>757</v>
       </c>
       <c r="G39" s="2">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H39" s="2">
-        <v>140</v>
+        <v>206</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2412,16 +2412,16 @@
         <v>513580</v>
       </c>
       <c r="E40" s="2">
-        <v>1297</v>
+        <v>2720</v>
       </c>
       <c r="F40" s="2">
-        <v>382</v>
+        <v>757</v>
       </c>
       <c r="G40" s="2">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H40" s="2">
-        <v>140</v>
+        <v>206</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2438,16 +2438,16 @@
         <v>513580</v>
       </c>
       <c r="E41" s="2">
-        <v>1297</v>
+        <v>2720</v>
       </c>
       <c r="F41" s="2">
-        <v>382</v>
+        <v>757</v>
       </c>
       <c r="G41" s="2">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H41" s="2">
-        <v>140</v>
+        <v>206</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2464,16 +2464,16 @@
         <v>513580</v>
       </c>
       <c r="E42" s="2">
-        <v>1297</v>
+        <v>2720</v>
       </c>
       <c r="F42" s="2">
-        <v>382</v>
+        <v>757</v>
       </c>
       <c r="G42" s="2">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H42" s="2">
-        <v>140</v>
+        <v>206</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2490,16 +2490,16 @@
         <v>513580</v>
       </c>
       <c r="E43" s="2">
-        <v>1297</v>
+        <v>2720</v>
       </c>
       <c r="F43" s="2">
-        <v>382</v>
+        <v>757</v>
       </c>
       <c r="G43" s="2">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H43" s="2">
-        <v>140</v>
+        <v>206</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2516,16 +2516,16 @@
         <v>513580</v>
       </c>
       <c r="E44" s="2">
-        <v>1297</v>
+        <v>2720</v>
       </c>
       <c r="F44" s="2">
-        <v>382</v>
+        <v>757</v>
       </c>
       <c r="G44" s="2">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H44" s="2">
-        <v>140</v>
+        <v>206</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2542,16 +2542,16 @@
         <v>513580</v>
       </c>
       <c r="E45" s="2">
-        <v>1297</v>
+        <v>2720</v>
       </c>
       <c r="F45" s="2">
-        <v>382</v>
+        <v>757</v>
       </c>
       <c r="G45" s="2">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H45" s="2">
-        <v>140</v>
+        <v>206</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2568,16 +2568,16 @@
         <v>513580</v>
       </c>
       <c r="E46" s="2">
-        <v>1297</v>
+        <v>2720</v>
       </c>
       <c r="F46" s="2">
-        <v>382</v>
+        <v>757</v>
       </c>
       <c r="G46" s="2">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H46" s="2">
-        <v>140</v>
+        <v>206</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2594,16 +2594,16 @@
         <v>513580</v>
       </c>
       <c r="E47" s="2">
-        <v>1297</v>
+        <v>2720</v>
       </c>
       <c r="F47" s="2">
-        <v>382</v>
+        <v>757</v>
       </c>
       <c r="G47" s="2">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H47" s="2">
-        <v>140</v>
+        <v>206</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2620,16 +2620,16 @@
         <v>513580</v>
       </c>
       <c r="E48" s="2">
-        <v>1297</v>
+        <v>2720</v>
       </c>
       <c r="F48" s="2">
-        <v>382</v>
+        <v>757</v>
       </c>
       <c r="G48" s="2">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H48" s="2">
-        <v>140</v>
+        <v>206</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2646,16 +2646,16 @@
         <v>219793</v>
       </c>
       <c r="E49" s="2">
-        <v>560</v>
+        <v>1050</v>
       </c>
       <c r="F49" s="2">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="G49" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H49" s="2">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2672,16 +2672,16 @@
         <v>219793</v>
       </c>
       <c r="E50" s="2">
-        <v>560</v>
+        <v>1050</v>
       </c>
       <c r="F50" s="2">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="G50" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H50" s="2">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2698,16 +2698,16 @@
         <v>219793</v>
       </c>
       <c r="E51" s="2">
-        <v>560</v>
+        <v>1050</v>
       </c>
       <c r="F51" s="2">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="G51" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H51" s="2">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2724,16 +2724,16 @@
         <v>219793</v>
       </c>
       <c r="E52" s="2">
-        <v>560</v>
+        <v>1050</v>
       </c>
       <c r="F52" s="2">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="G52" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H52" s="2">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2750,16 +2750,16 @@
         <v>219793</v>
       </c>
       <c r="E53" s="2">
-        <v>560</v>
+        <v>1050</v>
       </c>
       <c r="F53" s="2">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="G53" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H53" s="2">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2776,16 +2776,16 @@
         <v>219793</v>
       </c>
       <c r="E54" s="2">
-        <v>560</v>
+        <v>1050</v>
       </c>
       <c r="F54" s="2">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="G54" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H54" s="2">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2802,16 +2802,16 @@
         <v>219793</v>
       </c>
       <c r="E55" s="2">
-        <v>560</v>
+        <v>1050</v>
       </c>
       <c r="F55" s="2">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="G55" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H55" s="2">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2828,16 +2828,16 @@
         <v>219793</v>
       </c>
       <c r="E56" s="2">
-        <v>560</v>
+        <v>1050</v>
       </c>
       <c r="F56" s="2">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="G56" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H56" s="2">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2854,16 +2854,16 @@
         <v>219793</v>
       </c>
       <c r="E57" s="2">
-        <v>560</v>
+        <v>1050</v>
       </c>
       <c r="F57" s="2">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="G57" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H57" s="2">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2880,16 +2880,16 @@
         <v>219793</v>
       </c>
       <c r="E58" s="2">
-        <v>560</v>
+        <v>1050</v>
       </c>
       <c r="F58" s="2">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="G58" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H58" s="2">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2906,16 +2906,16 @@
         <v>306972</v>
       </c>
       <c r="E59" s="2">
-        <v>901</v>
+        <v>1643</v>
       </c>
       <c r="F59" s="2">
-        <v>427</v>
+        <v>604</v>
       </c>
       <c r="G59" s="2">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H59" s="2">
-        <v>58</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2932,16 +2932,16 @@
         <v>306972</v>
       </c>
       <c r="E60" s="2">
-        <v>901</v>
+        <v>1643</v>
       </c>
       <c r="F60" s="2">
-        <v>427</v>
+        <v>604</v>
       </c>
       <c r="G60" s="2">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H60" s="2">
-        <v>58</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2958,16 +2958,16 @@
         <v>306972</v>
       </c>
       <c r="E61" s="2">
-        <v>901</v>
+        <v>1643</v>
       </c>
       <c r="F61" s="2">
-        <v>427</v>
+        <v>604</v>
       </c>
       <c r="G61" s="2">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H61" s="2">
-        <v>58</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -2984,16 +2984,16 @@
         <v>306972</v>
       </c>
       <c r="E62" s="2">
-        <v>901</v>
+        <v>1643</v>
       </c>
       <c r="F62" s="2">
-        <v>427</v>
+        <v>604</v>
       </c>
       <c r="G62" s="2">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H62" s="2">
-        <v>58</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -3010,16 +3010,16 @@
         <v>306972</v>
       </c>
       <c r="E63" s="2">
-        <v>901</v>
+        <v>1643</v>
       </c>
       <c r="F63" s="2">
-        <v>427</v>
+        <v>604</v>
       </c>
       <c r="G63" s="2">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H63" s="2">
-        <v>58</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -3036,16 +3036,16 @@
         <v>306972</v>
       </c>
       <c r="E64" s="2">
-        <v>901</v>
+        <v>1643</v>
       </c>
       <c r="F64" s="2">
-        <v>427</v>
+        <v>604</v>
       </c>
       <c r="G64" s="2">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H64" s="2">
-        <v>58</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -3062,16 +3062,16 @@
         <v>306972</v>
       </c>
       <c r="E65" s="2">
-        <v>901</v>
+        <v>1643</v>
       </c>
       <c r="F65" s="2">
-        <v>427</v>
+        <v>604</v>
       </c>
       <c r="G65" s="2">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H65" s="2">
-        <v>58</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -3088,16 +3088,16 @@
         <v>306972</v>
       </c>
       <c r="E66" s="2">
-        <v>901</v>
+        <v>1643</v>
       </c>
       <c r="F66" s="2">
-        <v>427</v>
+        <v>604</v>
       </c>
       <c r="G66" s="2">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H66" s="2">
-        <v>58</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -3114,16 +3114,16 @@
         <v>306972</v>
       </c>
       <c r="E67" s="2">
-        <v>901</v>
+        <v>1643</v>
       </c>
       <c r="F67" s="2">
-        <v>427</v>
+        <v>604</v>
       </c>
       <c r="G67" s="2">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H67" s="2">
-        <v>58</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -3140,16 +3140,16 @@
         <v>306972</v>
       </c>
       <c r="E68" s="2">
-        <v>901</v>
+        <v>1643</v>
       </c>
       <c r="F68" s="2">
-        <v>427</v>
+        <v>604</v>
       </c>
       <c r="G68" s="2">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H68" s="2">
-        <v>58</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -3166,16 +3166,16 @@
         <v>306972</v>
       </c>
       <c r="E69" s="2">
-        <v>901</v>
+        <v>1643</v>
       </c>
       <c r="F69" s="2">
-        <v>427</v>
+        <v>604</v>
       </c>
       <c r="G69" s="2">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H69" s="2">
-        <v>58</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -3192,16 +3192,16 @@
         <v>306972</v>
       </c>
       <c r="E70" s="2">
-        <v>901</v>
+        <v>1643</v>
       </c>
       <c r="F70" s="2">
-        <v>427</v>
+        <v>604</v>
       </c>
       <c r="G70" s="2">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H70" s="2">
-        <v>58</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -3218,16 +3218,16 @@
         <v>306972</v>
       </c>
       <c r="E71" s="2">
-        <v>901</v>
+        <v>1643</v>
       </c>
       <c r="F71" s="2">
-        <v>427</v>
+        <v>604</v>
       </c>
       <c r="G71" s="2">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H71" s="2">
-        <v>58</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -3244,16 +3244,16 @@
         <v>306972</v>
       </c>
       <c r="E72" s="2">
-        <v>901</v>
+        <v>1643</v>
       </c>
       <c r="F72" s="2">
-        <v>427</v>
+        <v>604</v>
       </c>
       <c r="G72" s="2">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H72" s="2">
-        <v>58</v>
+        <v>79</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -3270,16 +3270,16 @@
         <v>306972</v>
       </c>
       <c r="E73" s="2">
-        <v>901</v>
+        <v>1643</v>
       </c>
       <c r="F73" s="2">
-        <v>427</v>
+        <v>604</v>
       </c>
       <c r="G73" s="2">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H73" s="2">
-        <v>58</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -3296,16 +3296,16 @@
         <v>306972</v>
       </c>
       <c r="E74" s="2">
-        <v>901</v>
+        <v>1643</v>
       </c>
       <c r="F74" s="2">
-        <v>427</v>
+        <v>604</v>
       </c>
       <c r="G74" s="2">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H74" s="2">
-        <v>58</v>
+        <v>79</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -3322,16 +3322,16 @@
         <v>8080080</v>
       </c>
       <c r="E75" s="2">
-        <v>14479</v>
+        <v>12019</v>
       </c>
       <c r="F75" s="2">
-        <v>2692</v>
+        <v>1650</v>
       </c>
       <c r="G75" s="2">
-        <v>352</v>
+        <v>265</v>
       </c>
       <c r="H75" s="2">
-        <v>1258</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -3348,16 +3348,16 @@
         <v>8080080</v>
       </c>
       <c r="E76" s="2">
-        <v>14479</v>
+        <v>12019</v>
       </c>
       <c r="F76" s="2">
-        <v>2692</v>
+        <v>1650</v>
       </c>
       <c r="G76" s="2">
-        <v>352</v>
+        <v>265</v>
       </c>
       <c r="H76" s="2">
-        <v>1258</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -3374,16 +3374,16 @@
         <v>8080080</v>
       </c>
       <c r="E77" s="2">
-        <v>14479</v>
+        <v>12019</v>
       </c>
       <c r="F77" s="2">
-        <v>2692</v>
+        <v>1650</v>
       </c>
       <c r="G77" s="2">
-        <v>352</v>
+        <v>265</v>
       </c>
       <c r="H77" s="2">
-        <v>1258</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -3400,16 +3400,16 @@
         <v>8080080</v>
       </c>
       <c r="E78" s="2">
-        <v>14479</v>
+        <v>12019</v>
       </c>
       <c r="F78" s="2">
-        <v>2692</v>
+        <v>1650</v>
       </c>
       <c r="G78" s="2">
-        <v>352</v>
+        <v>265</v>
       </c>
       <c r="H78" s="2">
-        <v>1258</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -3426,16 +3426,16 @@
         <v>8080080</v>
       </c>
       <c r="E79" s="2">
-        <v>14479</v>
+        <v>12019</v>
       </c>
       <c r="F79" s="2">
-        <v>2692</v>
+        <v>1650</v>
       </c>
       <c r="G79" s="2">
-        <v>352</v>
+        <v>265</v>
       </c>
       <c r="H79" s="2">
-        <v>1258</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -3452,16 +3452,16 @@
         <v>8080080</v>
       </c>
       <c r="E80" s="2">
-        <v>14479</v>
+        <v>12019</v>
       </c>
       <c r="F80" s="2">
-        <v>2692</v>
+        <v>1650</v>
       </c>
       <c r="G80" s="2">
-        <v>352</v>
+        <v>265</v>
       </c>
       <c r="H80" s="2">
-        <v>1258</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -3478,16 +3478,16 @@
         <v>8080080</v>
       </c>
       <c r="E81" s="2">
-        <v>14479</v>
+        <v>12019</v>
       </c>
       <c r="F81" s="2">
-        <v>2692</v>
+        <v>1650</v>
       </c>
       <c r="G81" s="2">
-        <v>352</v>
+        <v>265</v>
       </c>
       <c r="H81" s="2">
-        <v>1258</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -3504,16 +3504,16 @@
         <v>8080080</v>
       </c>
       <c r="E82" s="2">
-        <v>14479</v>
+        <v>12019</v>
       </c>
       <c r="F82" s="2">
-        <v>2692</v>
+        <v>1650</v>
       </c>
       <c r="G82" s="2">
-        <v>352</v>
+        <v>265</v>
       </c>
       <c r="H82" s="2">
-        <v>1258</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -3530,16 +3530,16 @@
         <v>8080080</v>
       </c>
       <c r="E83" s="2">
-        <v>14479</v>
+        <v>12019</v>
       </c>
       <c r="F83" s="2">
-        <v>2692</v>
+        <v>1650</v>
       </c>
       <c r="G83" s="2">
-        <v>352</v>
+        <v>265</v>
       </c>
       <c r="H83" s="2">
-        <v>1258</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -3556,16 +3556,16 @@
         <v>8080080</v>
       </c>
       <c r="E84" s="2">
-        <v>14479</v>
+        <v>12019</v>
       </c>
       <c r="F84" s="2">
-        <v>2692</v>
+        <v>1650</v>
       </c>
       <c r="G84" s="2">
-        <v>352</v>
+        <v>265</v>
       </c>
       <c r="H84" s="2">
-        <v>1258</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -3582,16 +3582,16 @@
         <v>8080080</v>
       </c>
       <c r="E85" s="2">
-        <v>14479</v>
+        <v>12019</v>
       </c>
       <c r="F85" s="2">
-        <v>2692</v>
+        <v>1650</v>
       </c>
       <c r="G85" s="2">
-        <v>352</v>
+        <v>265</v>
       </c>
       <c r="H85" s="2">
-        <v>1258</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -3608,16 +3608,16 @@
         <v>8080080</v>
       </c>
       <c r="E86" s="2">
-        <v>14479</v>
+        <v>12019</v>
       </c>
       <c r="F86" s="2">
-        <v>2692</v>
+        <v>1650</v>
       </c>
       <c r="G86" s="2">
-        <v>352</v>
+        <v>265</v>
       </c>
       <c r="H86" s="2">
-        <v>1258</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -3634,16 +3634,16 @@
         <v>8080080</v>
       </c>
       <c r="E87" s="2">
-        <v>14479</v>
+        <v>12019</v>
       </c>
       <c r="F87" s="2">
-        <v>2692</v>
+        <v>1650</v>
       </c>
       <c r="G87" s="2">
-        <v>352</v>
+        <v>265</v>
       </c>
       <c r="H87" s="2">
-        <v>1258</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -3660,16 +3660,16 @@
         <v>8080080</v>
       </c>
       <c r="E88" s="2">
-        <v>14479</v>
+        <v>12019</v>
       </c>
       <c r="F88" s="2">
-        <v>2692</v>
+        <v>1650</v>
       </c>
       <c r="G88" s="2">
-        <v>352</v>
+        <v>265</v>
       </c>
       <c r="H88" s="2">
-        <v>1258</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -3686,16 +3686,16 @@
         <v>8080080</v>
       </c>
       <c r="E89" s="2">
-        <v>14479</v>
+        <v>12019</v>
       </c>
       <c r="F89" s="2">
-        <v>2692</v>
+        <v>1650</v>
       </c>
       <c r="G89" s="2">
-        <v>352</v>
+        <v>265</v>
       </c>
       <c r="H89" s="2">
-        <v>1258</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -3712,16 +3712,16 @@
         <v>8080080</v>
       </c>
       <c r="E90" s="2">
-        <v>14479</v>
+        <v>12019</v>
       </c>
       <c r="F90" s="2">
-        <v>2692</v>
+        <v>1650</v>
       </c>
       <c r="G90" s="2">
-        <v>352</v>
+        <v>265</v>
       </c>
       <c r="H90" s="2">
-        <v>1258</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -3738,16 +3738,16 @@
         <v>8080080</v>
       </c>
       <c r="E91" s="2">
-        <v>14479</v>
+        <v>12019</v>
       </c>
       <c r="F91" s="2">
-        <v>2692</v>
+        <v>1650</v>
       </c>
       <c r="G91" s="2">
-        <v>352</v>
+        <v>265</v>
       </c>
       <c r="H91" s="2">
-        <v>1258</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -3764,16 +3764,16 @@
         <v>8080080</v>
       </c>
       <c r="E92" s="2">
-        <v>14479</v>
+        <v>12019</v>
       </c>
       <c r="F92" s="2">
-        <v>2692</v>
+        <v>1650</v>
       </c>
       <c r="G92" s="2">
-        <v>352</v>
+        <v>265</v>
       </c>
       <c r="H92" s="2">
-        <v>1258</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -3790,16 +3790,16 @@
         <v>8080080</v>
       </c>
       <c r="E93" s="2">
-        <v>14479</v>
+        <v>12019</v>
       </c>
       <c r="F93" s="2">
-        <v>2692</v>
+        <v>1650</v>
       </c>
       <c r="G93" s="2">
-        <v>352</v>
+        <v>265</v>
       </c>
       <c r="H93" s="2">
-        <v>1258</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -3816,16 +3816,16 @@
         <v>273329</v>
       </c>
       <c r="E94" s="2">
-        <v>1403</v>
+        <v>2063</v>
       </c>
       <c r="F94" s="2">
-        <v>819</v>
+        <v>693</v>
       </c>
       <c r="G94" s="2">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H94" s="2">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -3842,16 +3842,16 @@
         <v>273329</v>
       </c>
       <c r="E95" s="2">
-        <v>1403</v>
+        <v>2063</v>
       </c>
       <c r="F95" s="2">
-        <v>819</v>
+        <v>693</v>
       </c>
       <c r="G95" s="2">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H95" s="2">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -3868,16 +3868,16 @@
         <v>273329</v>
       </c>
       <c r="E96" s="2">
-        <v>1403</v>
+        <v>2063</v>
       </c>
       <c r="F96" s="2">
-        <v>819</v>
+        <v>693</v>
       </c>
       <c r="G96" s="2">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H96" s="2">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -3894,16 +3894,16 @@
         <v>273329</v>
       </c>
       <c r="E97" s="2">
-        <v>1403</v>
+        <v>2063</v>
       </c>
       <c r="F97" s="2">
-        <v>819</v>
+        <v>693</v>
       </c>
       <c r="G97" s="2">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H97" s="2">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -3920,16 +3920,16 @@
         <v>273329</v>
       </c>
       <c r="E98" s="2">
-        <v>1403</v>
+        <v>2063</v>
       </c>
       <c r="F98" s="2">
-        <v>819</v>
+        <v>693</v>
       </c>
       <c r="G98" s="2">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H98" s="2">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -3946,16 +3946,16 @@
         <v>273329</v>
       </c>
       <c r="E99" s="2">
-        <v>1403</v>
+        <v>2063</v>
       </c>
       <c r="F99" s="2">
-        <v>819</v>
+        <v>693</v>
       </c>
       <c r="G99" s="2">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H99" s="2">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -3972,16 +3972,16 @@
         <v>273329</v>
       </c>
       <c r="E100" s="2">
-        <v>1403</v>
+        <v>2063</v>
       </c>
       <c r="F100" s="2">
-        <v>819</v>
+        <v>693</v>
       </c>
       <c r="G100" s="2">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H100" s="2">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -3998,16 +3998,16 @@
         <v>273329</v>
       </c>
       <c r="E101" s="2">
-        <v>1403</v>
+        <v>2063</v>
       </c>
       <c r="F101" s="2">
-        <v>819</v>
+        <v>693</v>
       </c>
       <c r="G101" s="2">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H101" s="2">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -4024,16 +4024,16 @@
         <v>968611</v>
       </c>
       <c r="E102" s="2">
-        <v>2034</v>
+        <v>1993</v>
       </c>
       <c r="F102" s="2">
-        <v>554</v>
+        <v>319</v>
       </c>
       <c r="G102" s="2">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="H102" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -4050,16 +4050,16 @@
         <v>968611</v>
       </c>
       <c r="E103" s="2">
-        <v>2034</v>
+        <v>1993</v>
       </c>
       <c r="F103" s="2">
-        <v>554</v>
+        <v>319</v>
       </c>
       <c r="G103" s="2">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="H103" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -4076,16 +4076,16 @@
         <v>968611</v>
       </c>
       <c r="E104" s="2">
-        <v>2034</v>
+        <v>1993</v>
       </c>
       <c r="F104" s="2">
-        <v>554</v>
+        <v>319</v>
       </c>
       <c r="G104" s="2">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="H104" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -4102,16 +4102,16 @@
         <v>968611</v>
       </c>
       <c r="E105" s="2">
-        <v>2034</v>
+        <v>1993</v>
       </c>
       <c r="F105" s="2">
-        <v>554</v>
+        <v>319</v>
       </c>
       <c r="G105" s="2">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="H105" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -4128,16 +4128,16 @@
         <v>968611</v>
       </c>
       <c r="E106" s="2">
-        <v>2034</v>
+        <v>1993</v>
       </c>
       <c r="F106" s="2">
-        <v>554</v>
+        <v>319</v>
       </c>
       <c r="G106" s="2">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="H106" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -4154,16 +4154,16 @@
         <v>968611</v>
       </c>
       <c r="E107" s="2">
-        <v>2034</v>
+        <v>1993</v>
       </c>
       <c r="F107" s="2">
-        <v>554</v>
+        <v>319</v>
       </c>
       <c r="G107" s="2">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="H107" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -4180,16 +4180,16 @@
         <v>968611</v>
       </c>
       <c r="E108" s="2">
-        <v>2034</v>
+        <v>1993</v>
       </c>
       <c r="F108" s="2">
-        <v>554</v>
+        <v>319</v>
       </c>
       <c r="G108" s="2">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="H108" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -4206,16 +4206,16 @@
         <v>968611</v>
       </c>
       <c r="E109" s="2">
-        <v>2034</v>
+        <v>1993</v>
       </c>
       <c r="F109" s="2">
-        <v>554</v>
+        <v>319</v>
       </c>
       <c r="G109" s="2">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="H109" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -4232,16 +4232,16 @@
         <v>968611</v>
       </c>
       <c r="E110" s="2">
-        <v>2034</v>
+        <v>1993</v>
       </c>
       <c r="F110" s="2">
-        <v>554</v>
+        <v>319</v>
       </c>
       <c r="G110" s="2">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="H110" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -4258,16 +4258,16 @@
         <v>968611</v>
       </c>
       <c r="E111" s="2">
-        <v>2034</v>
+        <v>1993</v>
       </c>
       <c r="F111" s="2">
-        <v>554</v>
+        <v>319</v>
       </c>
       <c r="G111" s="2">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="H111" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -4284,16 +4284,16 @@
         <v>968611</v>
       </c>
       <c r="E112" s="2">
-        <v>2034</v>
+        <v>1993</v>
       </c>
       <c r="F112" s="2">
-        <v>554</v>
+        <v>319</v>
       </c>
       <c r="G112" s="2">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="H112" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -4310,16 +4310,16 @@
         <v>968611</v>
       </c>
       <c r="E113" s="2">
-        <v>2034</v>
+        <v>1993</v>
       </c>
       <c r="F113" s="2">
-        <v>554</v>
+        <v>319</v>
       </c>
       <c r="G113" s="2">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="H113" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -4336,16 +4336,16 @@
         <v>968611</v>
       </c>
       <c r="E114" s="2">
-        <v>2034</v>
+        <v>1993</v>
       </c>
       <c r="F114" s="2">
-        <v>554</v>
+        <v>319</v>
       </c>
       <c r="G114" s="2">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="H114" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -4362,16 +4362,16 @@
         <v>968611</v>
       </c>
       <c r="E115" s="2">
-        <v>2034</v>
+        <v>1993</v>
       </c>
       <c r="F115" s="2">
-        <v>554</v>
+        <v>319</v>
       </c>
       <c r="G115" s="2">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="H115" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -4388,16 +4388,16 @@
         <v>968611</v>
       </c>
       <c r="E116" s="2">
-        <v>2034</v>
+        <v>1993</v>
       </c>
       <c r="F116" s="2">
-        <v>554</v>
+        <v>319</v>
       </c>
       <c r="G116" s="2">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="H116" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -4414,16 +4414,16 @@
         <v>968611</v>
       </c>
       <c r="E117" s="2">
-        <v>2034</v>
+        <v>1993</v>
       </c>
       <c r="F117" s="2">
-        <v>554</v>
+        <v>319</v>
       </c>
       <c r="G117" s="2">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="H117" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -4440,16 +4440,16 @@
         <v>968611</v>
       </c>
       <c r="E118" s="2">
-        <v>2034</v>
+        <v>1993</v>
       </c>
       <c r="F118" s="2">
-        <v>554</v>
+        <v>319</v>
       </c>
       <c r="G118" s="2">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="H118" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -4466,16 +4466,16 @@
         <v>968611</v>
       </c>
       <c r="E119" s="2">
-        <v>2034</v>
+        <v>1993</v>
       </c>
       <c r="F119" s="2">
-        <v>554</v>
+        <v>319</v>
       </c>
       <c r="G119" s="2">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="H119" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -4492,16 +4492,16 @@
         <v>968611</v>
       </c>
       <c r="E120" s="2">
-        <v>2034</v>
+        <v>1993</v>
       </c>
       <c r="F120" s="2">
-        <v>554</v>
+        <v>319</v>
       </c>
       <c r="G120" s="2">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="H120" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -4518,16 +4518,16 @@
         <v>272151</v>
       </c>
       <c r="E121" s="2">
-        <v>580</v>
+        <v>427</v>
       </c>
       <c r="F121" s="2">
-        <v>234</v>
+        <v>122</v>
       </c>
       <c r="G121" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H121" s="2">
-        <v>97</v>
+        <v>49</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -4544,16 +4544,16 @@
         <v>272151</v>
       </c>
       <c r="E122" s="2">
-        <v>580</v>
+        <v>427</v>
       </c>
       <c r="F122" s="2">
-        <v>234</v>
+        <v>122</v>
       </c>
       <c r="G122" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H122" s="2">
-        <v>97</v>
+        <v>49</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -4570,16 +4570,16 @@
         <v>272151</v>
       </c>
       <c r="E123" s="2">
-        <v>580</v>
+        <v>427</v>
       </c>
       <c r="F123" s="2">
-        <v>234</v>
+        <v>122</v>
       </c>
       <c r="G123" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H123" s="2">
-        <v>97</v>
+        <v>49</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -4596,16 +4596,16 @@
         <v>272151</v>
       </c>
       <c r="E124" s="2">
-        <v>580</v>
+        <v>427</v>
       </c>
       <c r="F124" s="2">
-        <v>234</v>
+        <v>122</v>
       </c>
       <c r="G124" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H124" s="2">
-        <v>97</v>
+        <v>49</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -4622,16 +4622,16 @@
         <v>272151</v>
       </c>
       <c r="E125" s="2">
-        <v>580</v>
+        <v>427</v>
       </c>
       <c r="F125" s="2">
-        <v>234</v>
+        <v>122</v>
       </c>
       <c r="G125" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H125" s="2">
-        <v>97</v>
+        <v>49</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -4648,16 +4648,16 @@
         <v>272151</v>
       </c>
       <c r="E126" s="2">
-        <v>580</v>
+        <v>427</v>
       </c>
       <c r="F126" s="2">
-        <v>234</v>
+        <v>122</v>
       </c>
       <c r="G126" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H126" s="2">
-        <v>97</v>
+        <v>49</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -4674,16 +4674,16 @@
         <v>272151</v>
       </c>
       <c r="E127" s="2">
-        <v>580</v>
+        <v>427</v>
       </c>
       <c r="F127" s="2">
-        <v>234</v>
+        <v>122</v>
       </c>
       <c r="G127" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H127" s="2">
-        <v>97</v>
+        <v>49</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -4700,16 +4700,16 @@
         <v>881765</v>
       </c>
       <c r="E128" s="2">
-        <v>1804</v>
+        <v>801</v>
       </c>
       <c r="F128" s="2">
-        <v>411</v>
+        <v>115</v>
       </c>
       <c r="G128" s="2">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="H128" s="2">
-        <v>268</v>
+        <v>97</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -4726,16 +4726,16 @@
         <v>881765</v>
       </c>
       <c r="E129" s="2">
-        <v>1804</v>
+        <v>801</v>
       </c>
       <c r="F129" s="2">
-        <v>411</v>
+        <v>115</v>
       </c>
       <c r="G129" s="2">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="H129" s="2">
-        <v>268</v>
+        <v>97</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -4752,16 +4752,16 @@
         <v>881765</v>
       </c>
       <c r="E130" s="2">
-        <v>1804</v>
+        <v>801</v>
       </c>
       <c r="F130" s="2">
-        <v>411</v>
+        <v>115</v>
       </c>
       <c r="G130" s="2">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="H130" s="2">
-        <v>268</v>
+        <v>97</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -4778,16 +4778,16 @@
         <v>526736</v>
       </c>
       <c r="E131" s="2">
-        <v>1298</v>
+        <v>1754</v>
       </c>
       <c r="F131" s="2">
-        <v>508</v>
+        <v>770</v>
       </c>
       <c r="G131" s="2">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="H131" s="2">
-        <v>212</v>
+        <v>172</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -4804,16 +4804,16 @@
         <v>526736</v>
       </c>
       <c r="E132" s="2">
-        <v>1298</v>
+        <v>1754</v>
       </c>
       <c r="F132" s="2">
-        <v>508</v>
+        <v>770</v>
       </c>
       <c r="G132" s="2">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="H132" s="2">
-        <v>212</v>
+        <v>172</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -4830,16 +4830,16 @@
         <v>526736</v>
       </c>
       <c r="E133" s="2">
-        <v>1298</v>
+        <v>1754</v>
       </c>
       <c r="F133" s="2">
-        <v>508</v>
+        <v>770</v>
       </c>
       <c r="G133" s="2">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="H133" s="2">
-        <v>212</v>
+        <v>172</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -4856,16 +4856,16 @@
         <v>526736</v>
       </c>
       <c r="E134" s="2">
-        <v>1298</v>
+        <v>1754</v>
       </c>
       <c r="F134" s="2">
-        <v>508</v>
+        <v>770</v>
       </c>
       <c r="G134" s="2">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="H134" s="2">
-        <v>212</v>
+        <v>172</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -4882,16 +4882,16 @@
         <v>526736</v>
       </c>
       <c r="E135" s="2">
-        <v>1298</v>
+        <v>1754</v>
       </c>
       <c r="F135" s="2">
-        <v>508</v>
+        <v>770</v>
       </c>
       <c r="G135" s="2">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="H135" s="2">
-        <v>212</v>
+        <v>172</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -4908,16 +4908,16 @@
         <v>526736</v>
       </c>
       <c r="E136" s="2">
-        <v>1298</v>
+        <v>1754</v>
       </c>
       <c r="F136" s="2">
-        <v>508</v>
+        <v>770</v>
       </c>
       <c r="G136" s="2">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="H136" s="2">
-        <v>212</v>
+        <v>172</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -4934,16 +4934,16 @@
         <v>526736</v>
       </c>
       <c r="E137" s="2">
-        <v>1298</v>
+        <v>1754</v>
       </c>
       <c r="F137" s="2">
-        <v>508</v>
+        <v>770</v>
       </c>
       <c r="G137" s="2">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="H137" s="2">
-        <v>212</v>
+        <v>172</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -4960,16 +4960,16 @@
         <v>526736</v>
       </c>
       <c r="E138" s="2">
-        <v>1298</v>
+        <v>1754</v>
       </c>
       <c r="F138" s="2">
-        <v>508</v>
+        <v>770</v>
       </c>
       <c r="G138" s="2">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="H138" s="2">
-        <v>212</v>
+        <v>172</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -4986,16 +4986,16 @@
         <v>526736</v>
       </c>
       <c r="E139" s="2">
-        <v>1298</v>
+        <v>1754</v>
       </c>
       <c r="F139" s="2">
-        <v>508</v>
+        <v>770</v>
       </c>
       <c r="G139" s="2">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="H139" s="2">
-        <v>212</v>
+        <v>172</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5012,16 +5012,16 @@
         <v>526736</v>
       </c>
       <c r="E140" s="2">
-        <v>1298</v>
+        <v>1754</v>
       </c>
       <c r="F140" s="2">
-        <v>508</v>
+        <v>770</v>
       </c>
       <c r="G140" s="2">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="H140" s="2">
-        <v>212</v>
+        <v>172</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5038,16 +5038,16 @@
         <v>526736</v>
       </c>
       <c r="E141" s="2">
-        <v>1298</v>
+        <v>1754</v>
       </c>
       <c r="F141" s="2">
-        <v>508</v>
+        <v>770</v>
       </c>
       <c r="G141" s="2">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="H141" s="2">
-        <v>212</v>
+        <v>172</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5064,16 +5064,16 @@
         <v>526736</v>
       </c>
       <c r="E142" s="2">
-        <v>1298</v>
+        <v>1754</v>
       </c>
       <c r="F142" s="2">
-        <v>508</v>
+        <v>770</v>
       </c>
       <c r="G142" s="2">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="H142" s="2">
-        <v>212</v>
+        <v>172</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5090,16 +5090,16 @@
         <v>526736</v>
       </c>
       <c r="E143" s="2">
-        <v>1298</v>
+        <v>1754</v>
       </c>
       <c r="F143" s="2">
-        <v>508</v>
+        <v>770</v>
       </c>
       <c r="G143" s="2">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="H143" s="2">
-        <v>212</v>
+        <v>172</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5116,16 +5116,16 @@
         <v>526736</v>
       </c>
       <c r="E144" s="2">
-        <v>1298</v>
+        <v>1754</v>
       </c>
       <c r="F144" s="2">
-        <v>508</v>
+        <v>770</v>
       </c>
       <c r="G144" s="2">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="H144" s="2">
-        <v>212</v>
+        <v>172</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5142,16 +5142,16 @@
         <v>526736</v>
       </c>
       <c r="E145" s="2">
-        <v>1298</v>
+        <v>1754</v>
       </c>
       <c r="F145" s="2">
-        <v>508</v>
+        <v>770</v>
       </c>
       <c r="G145" s="2">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="H145" s="2">
-        <v>212</v>
+        <v>172</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5168,16 +5168,16 @@
         <v>526736</v>
       </c>
       <c r="E146" s="2">
-        <v>1298</v>
+        <v>1754</v>
       </c>
       <c r="F146" s="2">
-        <v>508</v>
+        <v>770</v>
       </c>
       <c r="G146" s="2">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="H146" s="2">
-        <v>212</v>
+        <v>172</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5194,16 +5194,16 @@
         <v>526736</v>
       </c>
       <c r="E147" s="2">
-        <v>1298</v>
+        <v>1754</v>
       </c>
       <c r="F147" s="2">
-        <v>508</v>
+        <v>770</v>
       </c>
       <c r="G147" s="2">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="H147" s="2">
-        <v>212</v>
+        <v>172</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5220,16 +5220,16 @@
         <v>179457</v>
       </c>
       <c r="E148" s="2">
-        <v>478</v>
+        <v>369</v>
       </c>
       <c r="F148" s="2">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="G148" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H148" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5246,16 +5246,16 @@
         <v>179457</v>
       </c>
       <c r="E149" s="2">
-        <v>478</v>
+        <v>369</v>
       </c>
       <c r="F149" s="2">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="G149" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H149" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5272,16 +5272,16 @@
         <v>179457</v>
       </c>
       <c r="E150" s="2">
-        <v>478</v>
+        <v>369</v>
       </c>
       <c r="F150" s="2">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="G150" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H150" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5298,16 +5298,16 @@
         <v>179457</v>
       </c>
       <c r="E151" s="2">
-        <v>478</v>
+        <v>369</v>
       </c>
       <c r="F151" s="2">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="G151" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H151" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5324,16 +5324,16 @@
         <v>179457</v>
       </c>
       <c r="E152" s="2">
-        <v>478</v>
+        <v>369</v>
       </c>
       <c r="F152" s="2">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="G152" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H152" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5350,16 +5350,16 @@
         <v>179457</v>
       </c>
       <c r="E153" s="2">
-        <v>478</v>
+        <v>369</v>
       </c>
       <c r="F153" s="2">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="G153" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H153" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5376,16 +5376,16 @@
         <v>179457</v>
       </c>
       <c r="E154" s="2">
-        <v>478</v>
+        <v>369</v>
       </c>
       <c r="F154" s="2">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="G154" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H154" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5402,16 +5402,16 @@
         <v>179457</v>
       </c>
       <c r="E155" s="2">
-        <v>478</v>
+        <v>369</v>
       </c>
       <c r="F155" s="2">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="G155" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H155" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5428,16 +5428,16 @@
         <v>179457</v>
       </c>
       <c r="E156" s="2">
-        <v>478</v>
+        <v>369</v>
       </c>
       <c r="F156" s="2">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="G156" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H156" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5454,16 +5454,16 @@
         <v>179457</v>
       </c>
       <c r="E157" s="2">
-        <v>478</v>
+        <v>369</v>
       </c>
       <c r="F157" s="2">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="G157" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H157" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5480,16 +5480,16 @@
         <v>179457</v>
       </c>
       <c r="E158" s="2">
-        <v>478</v>
+        <v>369</v>
       </c>
       <c r="F158" s="2">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="G158" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H158" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5506,16 +5506,16 @@
         <v>179457</v>
       </c>
       <c r="E159" s="2">
-        <v>478</v>
+        <v>369</v>
       </c>
       <c r="F159" s="2">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="G159" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H159" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5532,16 +5532,16 @@
         <v>179457</v>
       </c>
       <c r="E160" s="2">
-        <v>478</v>
+        <v>369</v>
       </c>
       <c r="F160" s="2">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="G160" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H160" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5558,16 +5558,16 @@
         <v>179457</v>
       </c>
       <c r="E161" s="2">
-        <v>478</v>
+        <v>369</v>
       </c>
       <c r="F161" s="2">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="G161" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H161" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5584,16 +5584,16 @@
         <v>490708</v>
       </c>
       <c r="E162" s="2">
-        <v>1061</v>
+        <v>1006</v>
       </c>
       <c r="F162" s="2">
-        <v>291</v>
+        <v>233</v>
       </c>
       <c r="G162" s="2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="H162" s="2">
-        <v>158</v>
+        <v>136</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5610,16 +5610,16 @@
         <v>490708</v>
       </c>
       <c r="E163" s="2">
-        <v>1061</v>
+        <v>1006</v>
       </c>
       <c r="F163" s="2">
-        <v>291</v>
+        <v>233</v>
       </c>
       <c r="G163" s="2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="H163" s="2">
-        <v>158</v>
+        <v>136</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5636,16 +5636,16 @@
         <v>490708</v>
       </c>
       <c r="E164" s="2">
-        <v>1061</v>
+        <v>1006</v>
       </c>
       <c r="F164" s="2">
-        <v>291</v>
+        <v>233</v>
       </c>
       <c r="G164" s="2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="H164" s="2">
-        <v>158</v>
+        <v>136</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5662,16 +5662,16 @@
         <v>490708</v>
       </c>
       <c r="E165" s="2">
-        <v>1061</v>
+        <v>1006</v>
       </c>
       <c r="F165" s="2">
-        <v>291</v>
+        <v>233</v>
       </c>
       <c r="G165" s="2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="H165" s="2">
-        <v>158</v>
+        <v>136</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5688,16 +5688,16 @@
         <v>490708</v>
       </c>
       <c r="E166" s="2">
-        <v>1061</v>
+        <v>1006</v>
       </c>
       <c r="F166" s="2">
-        <v>291</v>
+        <v>233</v>
       </c>
       <c r="G166" s="2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="H166" s="2">
-        <v>158</v>
+        <v>136</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5714,16 +5714,16 @@
         <v>490708</v>
       </c>
       <c r="E167" s="2">
-        <v>1061</v>
+        <v>1006</v>
       </c>
       <c r="F167" s="2">
-        <v>291</v>
+        <v>233</v>
       </c>
       <c r="G167" s="2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="H167" s="2">
-        <v>158</v>
+        <v>136</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5740,16 +5740,16 @@
         <v>346651</v>
       </c>
       <c r="E168" s="2">
-        <v>605</v>
+        <v>445</v>
       </c>
       <c r="F168" s="2">
-        <v>204</v>
+        <v>153</v>
       </c>
       <c r="G168" s="2">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H168" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5766,16 +5766,16 @@
         <v>346651</v>
       </c>
       <c r="E169" s="2">
-        <v>605</v>
+        <v>445</v>
       </c>
       <c r="F169" s="2">
-        <v>204</v>
+        <v>153</v>
       </c>
       <c r="G169" s="2">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H169" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5792,16 +5792,16 @@
         <v>346651</v>
       </c>
       <c r="E170" s="2">
-        <v>605</v>
+        <v>445</v>
       </c>
       <c r="F170" s="2">
-        <v>204</v>
+        <v>153</v>
       </c>
       <c r="G170" s="2">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H170" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5818,16 +5818,16 @@
         <v>346651</v>
       </c>
       <c r="E171" s="2">
-        <v>605</v>
+        <v>445</v>
       </c>
       <c r="F171" s="2">
-        <v>204</v>
+        <v>153</v>
       </c>
       <c r="G171" s="2">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H171" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5844,16 +5844,16 @@
         <v>346651</v>
       </c>
       <c r="E172" s="2">
-        <v>605</v>
+        <v>445</v>
       </c>
       <c r="F172" s="2">
-        <v>204</v>
+        <v>153</v>
       </c>
       <c r="G172" s="2">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H172" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5870,13 +5870,13 @@
         <v>360335</v>
       </c>
       <c r="E173" s="2">
-        <v>518</v>
+        <v>533</v>
       </c>
       <c r="F173" s="2">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="G173" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H173" s="2">
         <v>42</v>
@@ -5896,13 +5896,13 @@
         <v>360335</v>
       </c>
       <c r="E174" s="2">
-        <v>518</v>
+        <v>533</v>
       </c>
       <c r="F174" s="2">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="G174" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H174" s="2">
         <v>42</v>
@@ -5922,13 +5922,13 @@
         <v>360335</v>
       </c>
       <c r="E175" s="2">
-        <v>518</v>
+        <v>533</v>
       </c>
       <c r="F175" s="2">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="G175" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H175" s="2">
         <v>42</v>
@@ -5948,13 +5948,13 @@
         <v>360335</v>
       </c>
       <c r="E176" s="2">
-        <v>518</v>
+        <v>533</v>
       </c>
       <c r="F176" s="2">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="G176" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H176" s="2">
         <v>42</v>
@@ -5974,13 +5974,13 @@
         <v>360335</v>
       </c>
       <c r="E177" s="2">
-        <v>518</v>
+        <v>533</v>
       </c>
       <c r="F177" s="2">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="G177" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H177" s="2">
         <v>42</v>
@@ -6000,13 +6000,13 @@
         <v>360335</v>
       </c>
       <c r="E178" s="2">
-        <v>518</v>
+        <v>533</v>
       </c>
       <c r="F178" s="2">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="G178" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H178" s="2">
         <v>42</v>
@@ -6026,13 +6026,13 @@
         <v>360335</v>
       </c>
       <c r="E179" s="2">
-        <v>518</v>
+        <v>533</v>
       </c>
       <c r="F179" s="2">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="G179" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H179" s="2">
         <v>42</v>
@@ -6052,16 +6052,16 @@
         <v>2375407</v>
       </c>
       <c r="E180" s="2">
-        <v>3385</v>
+        <v>5534</v>
       </c>
       <c r="F180" s="2">
-        <v>753</v>
+        <v>563</v>
       </c>
       <c r="G180" s="2">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="H180" s="2">
-        <v>374</v>
+        <v>253</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6078,16 +6078,16 @@
         <v>2375407</v>
       </c>
       <c r="E181" s="2">
-        <v>3385</v>
+        <v>5534</v>
       </c>
       <c r="F181" s="2">
-        <v>753</v>
+        <v>563</v>
       </c>
       <c r="G181" s="2">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="H181" s="2">
-        <v>374</v>
+        <v>253</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6104,16 +6104,16 @@
         <v>2375407</v>
       </c>
       <c r="E182" s="2">
-        <v>3385</v>
+        <v>5534</v>
       </c>
       <c r="F182" s="2">
-        <v>753</v>
+        <v>563</v>
       </c>
       <c r="G182" s="2">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="H182" s="2">
-        <v>374</v>
+        <v>253</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6130,16 +6130,16 @@
         <v>2375407</v>
       </c>
       <c r="E183" s="2">
-        <v>3385</v>
+        <v>5534</v>
       </c>
       <c r="F183" s="2">
-        <v>753</v>
+        <v>563</v>
       </c>
       <c r="G183" s="2">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="H183" s="2">
-        <v>374</v>
+        <v>253</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6156,16 +6156,16 @@
         <v>2375407</v>
       </c>
       <c r="E184" s="2">
-        <v>3385</v>
+        <v>5534</v>
       </c>
       <c r="F184" s="2">
-        <v>753</v>
+        <v>563</v>
       </c>
       <c r="G184" s="2">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="H184" s="2">
-        <v>374</v>
+        <v>253</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6182,16 +6182,16 @@
         <v>2375407</v>
       </c>
       <c r="E185" s="2">
-        <v>3385</v>
+        <v>5534</v>
       </c>
       <c r="F185" s="2">
-        <v>753</v>
+        <v>563</v>
       </c>
       <c r="G185" s="2">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="H185" s="2">
-        <v>374</v>
+        <v>253</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6208,16 +6208,16 @@
         <v>2375407</v>
       </c>
       <c r="E186" s="2">
-        <v>3385</v>
+        <v>5534</v>
       </c>
       <c r="F186" s="2">
-        <v>753</v>
+        <v>563</v>
       </c>
       <c r="G186" s="2">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="H186" s="2">
-        <v>374</v>
+        <v>253</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6234,16 +6234,16 @@
         <v>2375407</v>
       </c>
       <c r="E187" s="2">
-        <v>3385</v>
+        <v>5534</v>
       </c>
       <c r="F187" s="2">
-        <v>753</v>
+        <v>563</v>
       </c>
       <c r="G187" s="2">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="H187" s="2">
-        <v>374</v>
+        <v>253</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6260,16 +6260,16 @@
         <v>2375407</v>
       </c>
       <c r="E188" s="2">
-        <v>3385</v>
+        <v>5534</v>
       </c>
       <c r="F188" s="2">
-        <v>753</v>
+        <v>563</v>
       </c>
       <c r="G188" s="2">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="H188" s="2">
-        <v>374</v>
+        <v>253</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6286,16 +6286,16 @@
         <v>2375407</v>
       </c>
       <c r="E189" s="2">
-        <v>3385</v>
+        <v>5534</v>
       </c>
       <c r="F189" s="2">
-        <v>753</v>
+        <v>563</v>
       </c>
       <c r="G189" s="2">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="H189" s="2">
-        <v>374</v>
+        <v>253</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6312,16 +6312,16 @@
         <v>2375407</v>
       </c>
       <c r="E190" s="2">
-        <v>3385</v>
+        <v>5534</v>
       </c>
       <c r="F190" s="2">
-        <v>753</v>
+        <v>563</v>
       </c>
       <c r="G190" s="2">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="H190" s="2">
-        <v>374</v>
+        <v>253</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6338,16 +6338,16 @@
         <v>2945792</v>
       </c>
       <c r="E191" s="2">
-        <v>4899</v>
+        <v>5681</v>
       </c>
       <c r="F191" s="2">
-        <v>1008</v>
+        <v>715</v>
       </c>
       <c r="G191" s="2">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="H191" s="2">
-        <v>496</v>
+        <v>695</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6364,16 +6364,16 @@
         <v>2945792</v>
       </c>
       <c r="E192" s="2">
-        <v>4899</v>
+        <v>5681</v>
       </c>
       <c r="F192" s="2">
-        <v>1008</v>
+        <v>715</v>
       </c>
       <c r="G192" s="2">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="H192" s="2">
-        <v>496</v>
+        <v>695</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6390,16 +6390,16 @@
         <v>2945792</v>
       </c>
       <c r="E193" s="2">
-        <v>4899</v>
+        <v>5681</v>
       </c>
       <c r="F193" s="2">
-        <v>1008</v>
+        <v>715</v>
       </c>
       <c r="G193" s="2">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="H193" s="2">
-        <v>496</v>
+        <v>695</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6416,16 +6416,16 @@
         <v>2945792</v>
       </c>
       <c r="E194" s="2">
-        <v>4899</v>
+        <v>5681</v>
       </c>
       <c r="F194" s="2">
-        <v>1008</v>
+        <v>715</v>
       </c>
       <c r="G194" s="2">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="H194" s="2">
-        <v>496</v>
+        <v>695</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6442,16 +6442,16 @@
         <v>2945792</v>
       </c>
       <c r="E195" s="2">
-        <v>4899</v>
+        <v>5681</v>
       </c>
       <c r="F195" s="2">
-        <v>1008</v>
+        <v>715</v>
       </c>
       <c r="G195" s="2">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="H195" s="2">
-        <v>496</v>
+        <v>695</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6468,16 +6468,16 @@
         <v>2945792</v>
       </c>
       <c r="E196" s="2">
-        <v>4899</v>
+        <v>5681</v>
       </c>
       <c r="F196" s="2">
-        <v>1008</v>
+        <v>715</v>
       </c>
       <c r="G196" s="2">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="H196" s="2">
-        <v>496</v>
+        <v>695</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6494,16 +6494,16 @@
         <v>2945792</v>
       </c>
       <c r="E197" s="2">
-        <v>4899</v>
+        <v>5681</v>
       </c>
       <c r="F197" s="2">
-        <v>1008</v>
+        <v>715</v>
       </c>
       <c r="G197" s="2">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="H197" s="2">
-        <v>496</v>
+        <v>695</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6520,16 +6520,16 @@
         <v>2945792</v>
       </c>
       <c r="E198" s="2">
-        <v>4899</v>
+        <v>5681</v>
       </c>
       <c r="F198" s="2">
-        <v>1008</v>
+        <v>715</v>
       </c>
       <c r="G198" s="2">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="H198" s="2">
-        <v>496</v>
+        <v>695</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6546,16 +6546,16 @@
         <v>2945792</v>
       </c>
       <c r="E199" s="2">
-        <v>4899</v>
+        <v>5681</v>
       </c>
       <c r="F199" s="2">
-        <v>1008</v>
+        <v>715</v>
       </c>
       <c r="G199" s="2">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="H199" s="2">
-        <v>496</v>
+        <v>695</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6572,16 +6572,16 @@
         <v>2945792</v>
       </c>
       <c r="E200" s="2">
-        <v>4899</v>
+        <v>5681</v>
       </c>
       <c r="F200" s="2">
-        <v>1008</v>
+        <v>715</v>
       </c>
       <c r="G200" s="2">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="H200" s="2">
-        <v>496</v>
+        <v>695</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6598,16 +6598,16 @@
         <v>2945792</v>
       </c>
       <c r="E201" s="2">
-        <v>4899</v>
+        <v>5681</v>
       </c>
       <c r="F201" s="2">
-        <v>1008</v>
+        <v>715</v>
       </c>
       <c r="G201" s="2">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="H201" s="2">
-        <v>496</v>
+        <v>695</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6624,16 +6624,16 @@
         <v>2945792</v>
       </c>
       <c r="E202" s="2">
-        <v>4899</v>
+        <v>5681</v>
       </c>
       <c r="F202" s="2">
-        <v>1008</v>
+        <v>715</v>
       </c>
       <c r="G202" s="2">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="H202" s="2">
-        <v>496</v>
+        <v>695</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6650,16 +6650,16 @@
         <v>2945792</v>
       </c>
       <c r="E203" s="2">
-        <v>4899</v>
+        <v>5681</v>
       </c>
       <c r="F203" s="2">
-        <v>1008</v>
+        <v>715</v>
       </c>
       <c r="G203" s="2">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="H203" s="2">
-        <v>496</v>
+        <v>695</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6676,16 +6676,16 @@
         <v>2945792</v>
       </c>
       <c r="E204" s="2">
-        <v>4899</v>
+        <v>5681</v>
       </c>
       <c r="F204" s="2">
-        <v>1008</v>
+        <v>715</v>
       </c>
       <c r="G204" s="2">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="H204" s="2">
-        <v>496</v>
+        <v>695</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6702,16 +6702,16 @@
         <v>2945792</v>
       </c>
       <c r="E205" s="2">
-        <v>4899</v>
+        <v>5681</v>
       </c>
       <c r="F205" s="2">
-        <v>1008</v>
+        <v>715</v>
       </c>
       <c r="G205" s="2">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="H205" s="2">
-        <v>496</v>
+        <v>695</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6728,16 +6728,16 @@
         <v>2945792</v>
       </c>
       <c r="E206" s="2">
-        <v>4899</v>
+        <v>5681</v>
       </c>
       <c r="F206" s="2">
-        <v>1008</v>
+        <v>715</v>
       </c>
       <c r="G206" s="2">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="H206" s="2">
-        <v>496</v>
+        <v>695</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6754,16 +6754,16 @@
         <v>2945792</v>
       </c>
       <c r="E207" s="2">
-        <v>4899</v>
+        <v>5681</v>
       </c>
       <c r="F207" s="2">
-        <v>1008</v>
+        <v>715</v>
       </c>
       <c r="G207" s="2">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="H207" s="2">
-        <v>496</v>
+        <v>695</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6780,16 +6780,16 @@
         <v>2945792</v>
       </c>
       <c r="E208" s="2">
-        <v>4899</v>
+        <v>5681</v>
       </c>
       <c r="F208" s="2">
-        <v>1008</v>
+        <v>715</v>
       </c>
       <c r="G208" s="2">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="H208" s="2">
-        <v>496</v>
+        <v>695</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6806,16 +6806,16 @@
         <v>2945792</v>
       </c>
       <c r="E209" s="2">
-        <v>4899</v>
+        <v>5681</v>
       </c>
       <c r="F209" s="2">
-        <v>1008</v>
+        <v>715</v>
       </c>
       <c r="G209" s="2">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="H209" s="2">
-        <v>496</v>
+        <v>695</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6832,16 +6832,16 @@
         <v>2945792</v>
       </c>
       <c r="E210" s="2">
-        <v>4899</v>
+        <v>5681</v>
       </c>
       <c r="F210" s="2">
-        <v>1008</v>
+        <v>715</v>
       </c>
       <c r="G210" s="2">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="H210" s="2">
-        <v>496</v>
+        <v>695</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6858,16 +6858,16 @@
         <v>2945792</v>
       </c>
       <c r="E211" s="2">
-        <v>4899</v>
+        <v>5681</v>
       </c>
       <c r="F211" s="2">
-        <v>1008</v>
+        <v>715</v>
       </c>
       <c r="G211" s="2">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="H211" s="2">
-        <v>496</v>
+        <v>695</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6884,16 +6884,16 @@
         <v>2945792</v>
       </c>
       <c r="E212" s="2">
-        <v>4899</v>
+        <v>5681</v>
       </c>
       <c r="F212" s="2">
-        <v>1008</v>
+        <v>715</v>
       </c>
       <c r="G212" s="2">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="H212" s="2">
-        <v>496</v>
+        <v>695</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6910,16 +6910,16 @@
         <v>6688587</v>
       </c>
       <c r="E213" s="2">
-        <v>13562</v>
+        <v>6905</v>
       </c>
       <c r="F213" s="2">
-        <v>2388</v>
+        <v>1243</v>
       </c>
       <c r="G213" s="2">
-        <v>194</v>
+        <v>70</v>
       </c>
       <c r="H213" s="2">
-        <v>1220</v>
+        <v>915</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6936,16 +6936,16 @@
         <v>6688587</v>
       </c>
       <c r="E214" s="2">
-        <v>13562</v>
+        <v>6905</v>
       </c>
       <c r="F214" s="2">
-        <v>2388</v>
+        <v>1243</v>
       </c>
       <c r="G214" s="2">
-        <v>194</v>
+        <v>70</v>
       </c>
       <c r="H214" s="2">
-        <v>1220</v>
+        <v>915</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6962,16 +6962,16 @@
         <v>6688587</v>
       </c>
       <c r="E215" s="2">
-        <v>13562</v>
+        <v>6905</v>
       </c>
       <c r="F215" s="2">
-        <v>2388</v>
+        <v>1243</v>
       </c>
       <c r="G215" s="2">
-        <v>194</v>
+        <v>70</v>
       </c>
       <c r="H215" s="2">
-        <v>1220</v>
+        <v>915</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6988,16 +6988,16 @@
         <v>6688587</v>
       </c>
       <c r="E216" s="2">
-        <v>13562</v>
+        <v>6905</v>
       </c>
       <c r="F216" s="2">
-        <v>2388</v>
+        <v>1243</v>
       </c>
       <c r="G216" s="2">
-        <v>194</v>
+        <v>70</v>
       </c>
       <c r="H216" s="2">
-        <v>1220</v>
+        <v>915</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -7014,16 +7014,16 @@
         <v>6688587</v>
       </c>
       <c r="E217" s="2">
-        <v>13562</v>
+        <v>6905</v>
       </c>
       <c r="F217" s="2">
-        <v>2388</v>
+        <v>1243</v>
       </c>
       <c r="G217" s="2">
-        <v>194</v>
+        <v>70</v>
       </c>
       <c r="H217" s="2">
-        <v>1220</v>
+        <v>915</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -7040,16 +7040,16 @@
         <v>6688587</v>
       </c>
       <c r="E218" s="2">
-        <v>13562</v>
+        <v>6905</v>
       </c>
       <c r="F218" s="2">
-        <v>2388</v>
+        <v>1243</v>
       </c>
       <c r="G218" s="2">
-        <v>194</v>
+        <v>70</v>
       </c>
       <c r="H218" s="2">
-        <v>1220</v>
+        <v>915</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -7066,16 +7066,16 @@
         <v>6688587</v>
       </c>
       <c r="E219" s="2">
-        <v>13562</v>
+        <v>6905</v>
       </c>
       <c r="F219" s="2">
-        <v>2388</v>
+        <v>1243</v>
       </c>
       <c r="G219" s="2">
-        <v>194</v>
+        <v>70</v>
       </c>
       <c r="H219" s="2">
-        <v>1220</v>
+        <v>915</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -7092,16 +7092,16 @@
         <v>6688587</v>
       </c>
       <c r="E220" s="2">
-        <v>13562</v>
+        <v>6905</v>
       </c>
       <c r="F220" s="2">
-        <v>2388</v>
+        <v>1243</v>
       </c>
       <c r="G220" s="2">
-        <v>194</v>
+        <v>70</v>
       </c>
       <c r="H220" s="2">
-        <v>1220</v>
+        <v>915</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -7118,16 +7118,16 @@
         <v>6688587</v>
       </c>
       <c r="E221" s="2">
-        <v>13562</v>
+        <v>6905</v>
       </c>
       <c r="F221" s="2">
-        <v>2388</v>
+        <v>1243</v>
       </c>
       <c r="G221" s="2">
-        <v>194</v>
+        <v>70</v>
       </c>
       <c r="H221" s="2">
-        <v>1220</v>
+        <v>915</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -7144,16 +7144,16 @@
         <v>1309237</v>
       </c>
       <c r="E222" s="2">
-        <v>1781</v>
+        <v>1663</v>
       </c>
       <c r="F222" s="2">
-        <v>304</v>
+        <v>223</v>
       </c>
       <c r="G222" s="2">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H222" s="2">
-        <v>196</v>
+        <v>139</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -7170,16 +7170,16 @@
         <v>1309237</v>
       </c>
       <c r="E223" s="2">
-        <v>1781</v>
+        <v>1663</v>
       </c>
       <c r="F223" s="2">
-        <v>304</v>
+        <v>223</v>
       </c>
       <c r="G223" s="2">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H223" s="2">
-        <v>196</v>
+        <v>139</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -7196,16 +7196,16 @@
         <v>1309237</v>
       </c>
       <c r="E224" s="2">
-        <v>1781</v>
+        <v>1663</v>
       </c>
       <c r="F224" s="2">
-        <v>304</v>
+        <v>223</v>
       </c>
       <c r="G224" s="2">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H224" s="2">
-        <v>196</v>
+        <v>139</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -7222,16 +7222,16 @@
         <v>1309237</v>
       </c>
       <c r="E225" s="2">
-        <v>1781</v>
+        <v>1663</v>
       </c>
       <c r="F225" s="2">
-        <v>304</v>
+        <v>223</v>
       </c>
       <c r="G225" s="2">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H225" s="2">
-        <v>196</v>
+        <v>139</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -7248,16 +7248,16 @@
         <v>1309237</v>
       </c>
       <c r="E226" s="2">
-        <v>1781</v>
+        <v>1663</v>
       </c>
       <c r="F226" s="2">
-        <v>304</v>
+        <v>223</v>
       </c>
       <c r="G226" s="2">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H226" s="2">
-        <v>196</v>
+        <v>139</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -7274,16 +7274,16 @@
         <v>1309237</v>
       </c>
       <c r="E227" s="2">
-        <v>1781</v>
+        <v>1663</v>
       </c>
       <c r="F227" s="2">
-        <v>304</v>
+        <v>223</v>
       </c>
       <c r="G227" s="2">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H227" s="2">
-        <v>196</v>
+        <v>139</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -7300,16 +7300,16 @@
         <v>1309237</v>
       </c>
       <c r="E228" s="2">
-        <v>1781</v>
+        <v>1663</v>
       </c>
       <c r="F228" s="2">
-        <v>304</v>
+        <v>223</v>
       </c>
       <c r="G228" s="2">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H228" s="2">
-        <v>196</v>
+        <v>139</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -7326,16 +7326,16 @@
         <v>1309237</v>
       </c>
       <c r="E229" s="2">
-        <v>1781</v>
+        <v>1663</v>
       </c>
       <c r="F229" s="2">
-        <v>304</v>
+        <v>223</v>
       </c>
       <c r="G229" s="2">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H229" s="2">
-        <v>196</v>
+        <v>139</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -7352,16 +7352,16 @@
         <v>1309237</v>
       </c>
       <c r="E230" s="2">
-        <v>1781</v>
+        <v>1663</v>
       </c>
       <c r="F230" s="2">
-        <v>304</v>
+        <v>223</v>
       </c>
       <c r="G230" s="2">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H230" s="2">
-        <v>196</v>
+        <v>139</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -7378,16 +7378,16 @@
         <v>186672</v>
       </c>
       <c r="E231" s="2">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="F231" s="2">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="G231" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H231" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -7404,16 +7404,16 @@
         <v>186672</v>
       </c>
       <c r="E232" s="2">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="F232" s="2">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="G232" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H232" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -7430,16 +7430,16 @@
         <v>186672</v>
       </c>
       <c r="E233" s="2">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="F233" s="2">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="G233" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H233" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -7456,16 +7456,16 @@
         <v>186672</v>
       </c>
       <c r="E234" s="2">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="F234" s="2">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="G234" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H234" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -7482,16 +7482,16 @@
         <v>186672</v>
       </c>
       <c r="E235" s="2">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="F235" s="2">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="G235" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H235" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -7508,16 +7508,16 @@
         <v>186672</v>
       </c>
       <c r="E236" s="2">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="F236" s="2">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="G236" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H236" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -7534,16 +7534,16 @@
         <v>295669</v>
       </c>
       <c r="E237" s="2">
-        <v>438</v>
+        <v>890</v>
       </c>
       <c r="F237" s="2">
-        <v>91</v>
+        <v>147</v>
       </c>
       <c r="G237" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H237" s="2">
-        <v>55</v>
+        <v>94</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -7560,16 +7560,16 @@
         <v>295669</v>
       </c>
       <c r="E238" s="2">
-        <v>438</v>
+        <v>890</v>
       </c>
       <c r="F238" s="2">
-        <v>91</v>
+        <v>147</v>
       </c>
       <c r="G238" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H238" s="2">
-        <v>55</v>
+        <v>94</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -7586,16 +7586,16 @@
         <v>295669</v>
       </c>
       <c r="E239" s="2">
-        <v>438</v>
+        <v>890</v>
       </c>
       <c r="F239" s="2">
-        <v>91</v>
+        <v>147</v>
       </c>
       <c r="G239" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H239" s="2">
-        <v>55</v>
+        <v>94</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -7612,16 +7612,16 @@
         <v>630897</v>
       </c>
       <c r="E240" s="2">
-        <v>1386</v>
+        <v>2350</v>
       </c>
       <c r="F240" s="2">
-        <v>321</v>
+        <v>1071</v>
       </c>
       <c r="G240" s="2">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="H240" s="2">
-        <v>146</v>
+        <v>167</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -7638,16 +7638,16 @@
         <v>630897</v>
       </c>
       <c r="E241" s="2">
-        <v>1386</v>
+        <v>2350</v>
       </c>
       <c r="F241" s="2">
-        <v>321</v>
+        <v>1071</v>
       </c>
       <c r="G241" s="2">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="H241" s="2">
-        <v>146</v>
+        <v>167</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -7664,16 +7664,16 @@
         <v>630897</v>
       </c>
       <c r="E242" s="2">
-        <v>1386</v>
+        <v>2350</v>
       </c>
       <c r="F242" s="2">
-        <v>321</v>
+        <v>1071</v>
       </c>
       <c r="G242" s="2">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="H242" s="2">
-        <v>146</v>
+        <v>167</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -7690,16 +7690,16 @@
         <v>630897</v>
       </c>
       <c r="E243" s="2">
-        <v>1386</v>
+        <v>2350</v>
       </c>
       <c r="F243" s="2">
-        <v>321</v>
+        <v>1071</v>
       </c>
       <c r="G243" s="2">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="H243" s="2">
-        <v>146</v>
+        <v>167</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -7716,16 +7716,16 @@
         <v>630897</v>
       </c>
       <c r="E244" s="2">
-        <v>1386</v>
+        <v>2350</v>
       </c>
       <c r="F244" s="2">
-        <v>321</v>
+        <v>1071</v>
       </c>
       <c r="G244" s="2">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="H244" s="2">
-        <v>146</v>
+        <v>167</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -7742,16 +7742,16 @@
         <v>630897</v>
       </c>
       <c r="E245" s="2">
-        <v>1386</v>
+        <v>2350</v>
       </c>
       <c r="F245" s="2">
-        <v>321</v>
+        <v>1071</v>
       </c>
       <c r="G245" s="2">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="H245" s="2">
-        <v>146</v>
+        <v>167</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -7768,16 +7768,16 @@
         <v>630897</v>
       </c>
       <c r="E246" s="2">
-        <v>1386</v>
+        <v>2350</v>
       </c>
       <c r="F246" s="2">
-        <v>321</v>
+        <v>1071</v>
       </c>
       <c r="G246" s="2">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="H246" s="2">
-        <v>146</v>
+        <v>167</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -7794,16 +7794,16 @@
         <v>630897</v>
       </c>
       <c r="E247" s="2">
-        <v>1386</v>
+        <v>2350</v>
       </c>
       <c r="F247" s="2">
-        <v>321</v>
+        <v>1071</v>
       </c>
       <c r="G247" s="2">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="H247" s="2">
-        <v>146</v>
+        <v>167</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -7820,16 +7820,16 @@
         <v>630897</v>
       </c>
       <c r="E248" s="2">
-        <v>1386</v>
+        <v>2350</v>
       </c>
       <c r="F248" s="2">
-        <v>321</v>
+        <v>1071</v>
       </c>
       <c r="G248" s="2">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="H248" s="2">
-        <v>146</v>
+        <v>167</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -7846,16 +7846,16 @@
         <v>630897</v>
       </c>
       <c r="E249" s="2">
-        <v>1386</v>
+        <v>2350</v>
       </c>
       <c r="F249" s="2">
-        <v>321</v>
+        <v>1071</v>
       </c>
       <c r="G249" s="2">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="H249" s="2">
-        <v>146</v>
+        <v>167</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -7872,16 +7872,16 @@
         <v>630897</v>
       </c>
       <c r="E250" s="2">
-        <v>1386</v>
+        <v>2350</v>
       </c>
       <c r="F250" s="2">
-        <v>321</v>
+        <v>1071</v>
       </c>
       <c r="G250" s="2">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="H250" s="2">
-        <v>146</v>
+        <v>167</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -7898,16 +7898,16 @@
         <v>630897</v>
       </c>
       <c r="E251" s="2">
-        <v>1386</v>
+        <v>2350</v>
       </c>
       <c r="F251" s="2">
-        <v>321</v>
+        <v>1071</v>
       </c>
       <c r="G251" s="2">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="H251" s="2">
-        <v>146</v>
+        <v>167</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -7924,16 +7924,16 @@
         <v>1385112</v>
       </c>
       <c r="E252" s="2">
-        <v>3022</v>
+        <v>3307</v>
       </c>
       <c r="F252" s="2">
-        <v>408</v>
+        <v>949</v>
       </c>
       <c r="G252" s="2">
-        <v>36</v>
+        <v>226</v>
       </c>
       <c r="H252" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -7950,16 +7950,16 @@
         <v>1385112</v>
       </c>
       <c r="E253" s="2">
-        <v>3022</v>
+        <v>3307</v>
       </c>
       <c r="F253" s="2">
-        <v>408</v>
+        <v>949</v>
       </c>
       <c r="G253" s="2">
-        <v>36</v>
+        <v>226</v>
       </c>
       <c r="H253" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -7976,16 +7976,16 @@
         <v>1385112</v>
       </c>
       <c r="E254" s="2">
-        <v>3022</v>
+        <v>3307</v>
       </c>
       <c r="F254" s="2">
-        <v>408</v>
+        <v>949</v>
       </c>
       <c r="G254" s="2">
-        <v>36</v>
+        <v>226</v>
       </c>
       <c r="H254" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -8002,16 +8002,16 @@
         <v>1385112</v>
       </c>
       <c r="E255" s="2">
-        <v>3022</v>
+        <v>3307</v>
       </c>
       <c r="F255" s="2">
-        <v>408</v>
+        <v>949</v>
       </c>
       <c r="G255" s="2">
-        <v>36</v>
+        <v>226</v>
       </c>
       <c r="H255" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
